--- a/data/trans_orig/P1422-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A221FD62-7D80-494C-9661-B2A8EB97DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8C9146-4ED6-4D22-89C9-268033CD8AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0055100-A21D-4925-AF8E-B30751A7B01E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14D927E0-5835-41F7-BAC4-ECFECFA64EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="247">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>96,28%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -109,13 +109,13 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,89%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,10 +127,10 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -139,634 +139,646 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF42A5D-D2A1-4DC6-B0FC-4E14B5AB2E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F54DFC-1ED0-4FD4-A508-D0FEBFAEF46C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,10 +1627,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1627,13 +1639,13 @@
         <v>7565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1642,13 +1654,13 @@
         <v>17653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1675,13 @@
         <v>1007859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>931</v>
@@ -1678,13 +1690,13 @@
         <v>1021408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1857</v>
@@ -1693,13 +1705,13 @@
         <v>2029267</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1767,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1767,13 +1779,13 @@
         <v>7205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1782,13 +1794,13 @@
         <v>4489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1797,13 +1809,13 @@
         <v>11693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1830,13 @@
         <v>750418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>701</v>
@@ -1833,13 +1845,13 @@
         <v>772685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
@@ -1848,13 +1860,13 @@
         <v>1523104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1922,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1922,13 +1934,13 @@
         <v>9180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1937,13 +1949,13 @@
         <v>9147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1952,13 +1964,13 @@
         <v>18326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1985,13 @@
         <v>938559</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>994</v>
@@ -1988,13 +2000,13 @@
         <v>1042754</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1896</v>
@@ -2003,13 +2015,13 @@
         <v>1981314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2089,13 @@
         <v>33622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2092,13 +2104,13 @@
         <v>25379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -2107,13 +2119,13 @@
         <v>59001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2140,13 @@
         <v>3393157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>3272</v>
@@ -2143,28 +2155,28 @@
         <v>3529719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>6451</v>
       </c>
       <c r="N20" s="7">
-        <v>6922876</v>
+        <v>6922877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2218,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2220,7 +2232,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB927D8-B395-4D62-914B-2DBF9B587677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CC0D-E301-40EB-9B7B-2F6D98221764}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2258,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2365,13 +2377,13 @@
         <v>1873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2383,10 +2395,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2395,13 +2407,13 @@
         <v>1873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,7 +2428,7 @@
         <v>114673</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>124</v>
@@ -2523,10 +2535,10 @@
         <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2535,13 +2547,13 @@
         <v>2251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2550,13 +2562,13 @@
         <v>6584</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2589,7 @@
         <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -2586,10 +2598,10 @@
         <v>557228</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2601,10 +2613,10 @@
         <v>1111149</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>141</v>
@@ -2681,7 +2693,7 @@
         <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2690,13 +2702,13 @@
         <v>8676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2705,13 +2717,13 @@
         <v>11680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>1019427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -2741,13 +2753,13 @@
         <v>1034237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>1918</v>
@@ -2756,13 +2768,13 @@
         <v>2053664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2830,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2830,13 +2842,13 @@
         <v>4867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2845,13 +2857,13 @@
         <v>1271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2860,13 +2872,13 @@
         <v>6138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>754685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -2896,10 +2908,10 @@
         <v>783740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2911,13 +2923,13 @@
         <v>1538425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2988,10 +3000,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3003,10 +3015,10 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3015,13 +3027,13 @@
         <v>16093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,10 +3051,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -3054,10 +3066,10 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>1876</v>
@@ -3140,13 +3152,13 @@
         <v>21568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3155,7 +3167,7 @@
         <v>20800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>175</v>
@@ -3173,10 +3185,10 @@
         <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>3372782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3206,13 +3218,13 @@
         <v>3523742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>6530</v>
@@ -3221,13 +3233,13 @@
         <v>6896524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3295,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577AC9DA-581E-4574-B085-C88DE6716CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F175B1-2421-46B5-B04A-2AE96519C830}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3428,13 +3440,13 @@
         <v>491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3443,13 +3455,13 @@
         <v>1765</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3458,13 +3470,13 @@
         <v>2256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3491,10 @@
         <v>101491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3494,13 +3506,13 @@
         <v>128968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -3509,7 +3521,7 @@
         <v>230459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>193</v>
@@ -3586,10 +3598,10 @@
         <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3598,13 +3610,13 @@
         <v>6684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3613,7 +3625,7 @@
         <v>18414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>199</v>
@@ -3640,7 +3652,7 @@
         <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>980</v>
@@ -3649,13 +3661,13 @@
         <v>585871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1576</v>
@@ -3664,7 +3676,7 @@
         <v>1123964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>205</v>
@@ -3738,13 +3750,13 @@
         <v>15016</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3753,13 +3765,13 @@
         <v>11736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3768,13 +3780,13 @@
         <v>26753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3801,13 @@
         <v>1024232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1494</v>
@@ -3804,13 +3816,13 @@
         <v>1047020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>2439</v>
@@ -3819,13 +3831,13 @@
         <v>2071251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3893,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3893,13 +3905,13 @@
         <v>9050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3908,13 +3920,13 @@
         <v>6133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3923,13 +3935,13 @@
         <v>15183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3956,13 @@
         <v>715992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>1036</v>
@@ -3959,28 +3971,28 @@
         <v>867214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1697</v>
       </c>
       <c r="N14" s="7">
-        <v>1583207</v>
+        <v>1583206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4034,7 @@
         <v>1716</v>
       </c>
       <c r="N15" s="7">
-        <v>1598390</v>
+        <v>1598389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4036,7 +4048,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4048,13 +4060,13 @@
         <v>8931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4066,10 +4078,10 @@
         <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4078,13 +4090,13 @@
         <v>21103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4111,13 @@
         <v>956472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>1540</v>
@@ -4117,10 +4129,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4129,13 +4141,13 @@
         <v>2091244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4215,13 @@
         <v>45219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4218,13 +4230,13 @@
         <v>38490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4233,13 +4245,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4266,13 @@
         <v>3336279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>5290</v>
@@ -4269,13 +4281,13 @@
         <v>3763845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>8603</v>
@@ -4284,13 +4296,13 @@
         <v>7100125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4358,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8C9146-4ED6-4D22-89C9-268033CD8AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338E79E8-6B3E-43B6-8A15-BADEBF4F6267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14D927E0-5835-41F7-BAC4-ECFECFA64EC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CFCE45F-08A5-4632-9578-D6EF95BF4A47}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="251">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -91,7 +91,7 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,621 +115,642 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>97,76%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -739,18 +760,12 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>1,78%</t>
   </si>
   <si>
@@ -767,9 +782,6 @@
   </si>
   <si>
     <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
   </si>
   <si>
     <t>98,99%</t>
@@ -1190,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F54DFC-1ED0-4FD4-A508-D0FEBFAEF46C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09E130-32A1-47AC-8EAE-03BAE7FC02A1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1812,10 +1824,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1842,13 @@
         <v>750418</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>701</v>
@@ -1845,13 +1857,13 @@
         <v>772685</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
@@ -1860,13 +1872,13 @@
         <v>1523104</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1934,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1934,13 +1946,13 @@
         <v>9180</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1949,13 +1961,13 @@
         <v>9147</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1964,13 +1976,13 @@
         <v>18326</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1997,13 @@
         <v>938559</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>994</v>
@@ -2000,13 +2012,13 @@
         <v>1042754</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1896</v>
@@ -2015,10 +2027,10 @@
         <v>1981314</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>100</v>
@@ -2095,7 +2107,7 @@
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2104,13 +2116,13 @@
         <v>25379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -2119,13 +2131,13 @@
         <v>59001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2152,13 @@
         <v>3393157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3272</v>
@@ -2155,28 +2167,28 @@
         <v>3529719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6451</v>
       </c>
       <c r="N20" s="7">
-        <v>6922877</v>
+        <v>6922876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2230,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2232,7 +2244,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CC0D-E301-40EB-9B7B-2F6D98221764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00794F6-0A98-40F9-93E6-2F00E9A18DF0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2270,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2377,13 +2389,13 @@
         <v>1873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2395,10 +2407,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2407,13 +2419,13 @@
         <v>1873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,10 +2440,10 @@
         <v>114673</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2446,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2458,10 +2470,10 @@
         <v>228033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2532,13 +2544,13 @@
         <v>4333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2547,13 +2559,13 @@
         <v>2251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2562,13 +2574,13 @@
         <v>6584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>553921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -2598,10 +2610,10 @@
         <v>557228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2613,13 +2625,13 @@
         <v>1111149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>3004</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2702,13 +2714,13 @@
         <v>8676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2717,13 +2729,13 @@
         <v>11680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>1019427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -2753,13 +2765,13 @@
         <v>1034237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1918</v>
@@ -2768,13 +2780,13 @@
         <v>2053664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2854,13 @@
         <v>4867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2857,13 +2869,13 @@
         <v>1271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2872,13 +2884,13 @@
         <v>6138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2905,13 @@
         <v>754685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -2908,10 +2920,10 @@
         <v>783740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2923,13 +2935,13 @@
         <v>1538425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2997,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3000,10 +3012,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3018,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3027,13 +3039,13 @@
         <v>16093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,10 +3063,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -3066,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -3078,13 +3090,13 @@
         <v>1965253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,10 +3164,10 @@
         <v>21568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>66</v>
@@ -3167,13 +3179,13 @@
         <v>20800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -3182,13 +3194,13 @@
         <v>42368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3215,13 @@
         <v>3372782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3218,13 +3230,13 @@
         <v>3523742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>6530</v>
@@ -3233,13 +3245,13 @@
         <v>6896524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F175B1-2421-46B5-B04A-2AE96519C830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD3726-A607-41B8-A0D6-8BE937F25095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,7 +3345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3440,13 +3452,13 @@
         <v>491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3455,13 +3467,13 @@
         <v>1765</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3470,13 +3482,13 @@
         <v>2256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3503,10 @@
         <v>101491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3506,13 +3518,13 @@
         <v>128968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -3521,7 +3533,7 @@
         <v>230459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>193</v>
@@ -3598,10 +3610,10 @@
         <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3610,10 +3622,10 @@
         <v>6684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>198</v>
@@ -3625,13 +3637,13 @@
         <v>18414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3658,13 @@
         <v>538092</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
         <v>980</v>
@@ -3661,13 +3673,13 @@
         <v>585871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>1576</v>
@@ -3676,13 +3688,13 @@
         <v>1123964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3762,13 @@
         <v>15016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3765,13 +3777,13 @@
         <v>11736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3780,13 +3792,13 @@
         <v>26753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,10 +3813,10 @@
         <v>1024232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -3816,13 +3828,13 @@
         <v>1047020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>2439</v>
@@ -3831,13 +3843,13 @@
         <v>2071251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3917,13 @@
         <v>9050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3920,13 +3932,13 @@
         <v>6133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3938,10 +3950,10 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3968,13 @@
         <v>715992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>1036</v>
@@ -3971,13 +3983,13 @@
         <v>867214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1697</v>
@@ -3986,13 +3998,13 @@
         <v>1583206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4060,13 +4072,13 @@
         <v>8931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4078,10 +4090,10 @@
         <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4090,13 +4102,13 @@
         <v>21103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4123,13 @@
         <v>956472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>1540</v>
@@ -4129,10 +4141,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4141,13 +4153,13 @@
         <v>2091244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4227,13 @@
         <v>45219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4230,13 +4242,13 @@
         <v>38490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4245,13 +4257,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>3336279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>5290</v>
@@ -4281,13 +4293,13 @@
         <v>3763845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>8603</v>
@@ -4296,13 +4308,13 @@
         <v>7100125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4370,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338E79E8-6B3E-43B6-8A15-BADEBF4F6267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE0B542-3793-4E00-92A5-7C526E35F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CFCE45F-08A5-4632-9578-D6EF95BF4A47}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23729AA3-3D4B-4893-821F-3A999E9519D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="243">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>96,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -109,13 +109,13 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,670 +127,646 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09E130-32A1-47AC-8EAE-03BAE7FC02A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20DF806-42D0-415C-BE9F-84E2B581003F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1639,10 +1615,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1651,13 +1627,13 @@
         <v>7565</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1666,13 +1642,13 @@
         <v>17653</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,13 +1663,13 @@
         <v>1007859</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>931</v>
@@ -1702,13 +1678,13 @@
         <v>1021408</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1857</v>
@@ -1717,13 +1693,13 @@
         <v>2029267</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,7 +1755,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1791,13 +1767,13 @@
         <v>7205</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1806,13 +1782,13 @@
         <v>4489</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1821,13 +1797,13 @@
         <v>11693</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,13 +1818,13 @@
         <v>750418</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>701</v>
@@ -1857,13 +1833,13 @@
         <v>772685</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
@@ -1872,13 +1848,13 @@
         <v>1523104</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,10 +1940,10 @@
         <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1976,13 +1952,13 @@
         <v>18326</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +1973,13 @@
         <v>938559</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>994</v>
@@ -2012,13 +1988,13 @@
         <v>1042754</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>1896</v>
@@ -2027,13 +2003,13 @@
         <v>1981314</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2077,13 @@
         <v>33622</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2116,13 +2092,13 @@
         <v>25379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -2131,13 +2107,13 @@
         <v>59001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2128,13 @@
         <v>3393157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>3272</v>
@@ -2167,13 +2143,13 @@
         <v>3529719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>6451</v>
@@ -2182,13 +2158,13 @@
         <v>6922876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2220,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00794F6-0A98-40F9-93E6-2F00E9A18DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CDB046-6A86-4986-B89F-6F5FC96DFD07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,7 +2258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2389,13 +2365,13 @@
         <v>1873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2407,10 +2383,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2419,13 +2395,13 @@
         <v>1873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2416,10 @@
         <v>114673</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2458,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2470,10 +2446,10 @@
         <v>228033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2544,13 +2520,13 @@
         <v>4333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2559,13 +2535,13 @@
         <v>2251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2574,13 +2550,13 @@
         <v>6584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2571,13 @@
         <v>553921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -2610,10 +2586,10 @@
         <v>557228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2625,13 +2601,13 @@
         <v>1111149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2675,13 @@
         <v>3004</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2714,13 +2690,13 @@
         <v>8676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2729,13 +2705,13 @@
         <v>11680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2726,13 @@
         <v>1019427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -2765,13 +2741,13 @@
         <v>1034237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>1918</v>
@@ -2780,13 +2756,13 @@
         <v>2053664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2818,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2854,13 +2830,13 @@
         <v>4867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2869,13 +2845,13 @@
         <v>1271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2884,13 +2860,13 @@
         <v>6138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2881,13 @@
         <v>754685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -2920,10 +2896,10 @@
         <v>783740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2935,13 +2911,13 @@
         <v>1538425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,10 +2988,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3027,10 +3003,10 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3039,13 +3015,13 @@
         <v>16093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,10 +3039,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -3078,10 +3054,10 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>1876</v>
@@ -3090,13 +3066,13 @@
         <v>1965253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3140,13 @@
         <v>21568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3179,13 +3155,13 @@
         <v>20800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -3194,13 +3170,13 @@
         <v>42368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3191,13 @@
         <v>3372782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3230,7 +3206,7 @@
         <v>3523742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>179</v>
@@ -3248,10 +3224,10 @@
         <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD3726-A607-41B8-A0D6-8BE937F25095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976A2CF3-7FBE-4737-878D-6520C8972084}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,10 +3443,10 @@
         <v>1765</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>186</v>
@@ -3518,13 +3494,13 @@
         <v>128968</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -3533,7 +3509,7 @@
         <v>230459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>193</v>
@@ -3610,7 +3586,7 @@
         <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>196</v>
@@ -3625,10 +3601,10 @@
         <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3637,13 +3613,13 @@
         <v>18414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3634,13 @@
         <v>538092</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>980</v>
@@ -3673,13 +3649,13 @@
         <v>585871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>1576</v>
@@ -3688,13 +3664,13 @@
         <v>1123964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3738,13 @@
         <v>15016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3777,13 +3753,13 @@
         <v>11736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3792,13 +3768,13 @@
         <v>26753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3789,13 @@
         <v>1024232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>1494</v>
@@ -3828,13 +3804,13 @@
         <v>1047020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>2439</v>
@@ -3843,13 +3819,13 @@
         <v>2071251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,7 +3881,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3917,13 +3893,13 @@
         <v>9050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3932,13 +3908,13 @@
         <v>6133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3947,13 +3923,13 @@
         <v>15183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,10 +3947,10 @@
         <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>1036</v>
@@ -3983,28 +3959,28 @@
         <v>867214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>1697</v>
       </c>
       <c r="N14" s="7">
-        <v>1583206</v>
+        <v>1583207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4022,7 @@
         <v>1716</v>
       </c>
       <c r="N15" s="7">
-        <v>1598389</v>
+        <v>1598390</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4072,13 +4048,13 @@
         <v>8931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4090,10 +4066,10 @@
         <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4102,13 +4078,13 @@
         <v>21103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4099,13 @@
         <v>956472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>1540</v>
@@ -4141,10 +4117,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4153,13 +4129,13 @@
         <v>2091244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4203,13 @@
         <v>45219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4242,13 +4218,13 @@
         <v>38490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4257,13 +4233,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4254,13 @@
         <v>3336279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>5290</v>
@@ -4293,13 +4269,13 @@
         <v>3763845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>8603</v>
@@ -4308,13 +4284,13 @@
         <v>7100125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4346,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE0B542-3793-4E00-92A5-7C526E35F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BF71C6-59CF-4662-B8F1-309F9F0F6018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23729AA3-3D4B-4893-821F-3A999E9519D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB3656BC-8DFC-441E-B34F-275837837B95}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="221">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,516 +67,450 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
     <t>99,07%</t>
   </si>
   <si>
@@ -589,184 +523,184 @@
     <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1112,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20DF806-42D0-415C-BE9F-84E2B581003F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839E38DB-A23B-4300-B276-DD888496BA68}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1296,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>947</v>
+        <v>7150</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1311,85 +1245,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1053</v>
+        <v>4178</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>1999</v>
+        <v>11328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>667</v>
       </c>
       <c r="D5" s="7">
-        <v>114818</v>
+        <v>696319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>646</v>
       </c>
       <c r="I5" s="7">
-        <v>110852</v>
+        <v>692872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1313</v>
       </c>
       <c r="N5" s="7">
-        <v>225671</v>
+        <v>1389191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,153 +1332,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>6203</v>
+        <v>10088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>3126</v>
+        <v>7565</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>9329</v>
+        <v>17653</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>926</v>
       </c>
       <c r="D8" s="7">
-        <v>581501</v>
+        <v>1007859</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>548</v>
+        <v>931</v>
       </c>
       <c r="I8" s="7">
-        <v>582019</v>
+        <v>1021408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1094</v>
+        <v>1857</v>
       </c>
       <c r="N8" s="7">
-        <v>1163520</v>
+        <v>2029268</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,153 +1487,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>10088</v>
+        <v>7205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>7565</v>
+        <v>4489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>17653</v>
+        <v>11693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>926</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>1007859</v>
+        <v>750418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>931</v>
+        <v>701</v>
       </c>
       <c r="I11" s="7">
-        <v>1021408</v>
+        <v>772685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1857</v>
+        <v>1385</v>
       </c>
       <c r="N11" s="7">
-        <v>2029267</v>
+        <v>1523104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,144 +1642,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7205</v>
+        <v>9180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>4489</v>
+        <v>9147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>11693</v>
+        <v>18326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>902</v>
       </c>
       <c r="D14" s="7">
-        <v>750418</v>
+        <v>938559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>701</v>
+        <v>994</v>
       </c>
       <c r="I14" s="7">
-        <v>772685</v>
+        <v>1042754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
-        <v>1385</v>
+        <v>1896</v>
       </c>
       <c r="N14" s="7">
-        <v>1523104</v>
+        <v>1981314</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -1863,153 +1797,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>9180</v>
+        <v>33622</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25379</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9147</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>54</v>
+      </c>
+      <c r="N16" s="7">
+        <v>59001</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18326</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>902</v>
+        <v>3179</v>
       </c>
       <c r="D17" s="7">
-        <v>938559</v>
+        <v>3393157</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3272</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3529719</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="7">
-        <v>994</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1042754</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6451</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6922876</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1981314</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,217 +1952,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33622</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25379</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="7">
-        <v>54</v>
-      </c>
-      <c r="N19" s="7">
-        <v>59001</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3179</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3393157</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3272</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3529719</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6451</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6922876</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2241,8 +2019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CDB046-6A86-4986-B89F-6F5FC96DFD07}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DD8378-7B2C-40D4-8E35-717F4D90E63C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2258,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2359,100 +2137,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6206</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1873</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1873</v>
+        <v>8457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>645</v>
+      </c>
+      <c r="D5" s="7">
+        <v>668594</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="7">
+        <v>664</v>
+      </c>
+      <c r="I5" s="7">
+        <v>670588</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="7">
-        <v>114673</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="L5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1309</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1339182</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="I5" s="7">
-        <v>113360</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>226</v>
-      </c>
-      <c r="N5" s="7">
-        <v>228033</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,153 +2239,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4333</v>
+        <v>3004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2251</v>
+        <v>8676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>6584</v>
+        <v>11680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>948</v>
       </c>
       <c r="D8" s="7">
-        <v>553921</v>
+        <v>1019427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
-        <v>549</v>
+        <v>970</v>
       </c>
       <c r="I8" s="7">
-        <v>557228</v>
+        <v>1034237</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
-        <v>1083</v>
+        <v>1918</v>
       </c>
       <c r="N8" s="7">
-        <v>1111149</v>
+        <v>2053664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,153 +2394,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3004</v>
+        <v>4867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>8676</v>
+        <v>1271</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>11680</v>
+        <v>6138</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>948</v>
+        <v>692</v>
       </c>
       <c r="D11" s="7">
-        <v>1019427</v>
+        <v>754685</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>970</v>
+        <v>735</v>
       </c>
       <c r="I11" s="7">
-        <v>1034237</v>
+        <v>783740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
-        <v>1918</v>
+        <v>1427</v>
       </c>
       <c r="N11" s="7">
-        <v>2053664</v>
+        <v>1538425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,153 +2549,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4867</v>
+        <v>7491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>1271</v>
+        <v>8602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>6138</v>
+        <v>16093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>692</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>754685</v>
+        <v>930076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>735</v>
+        <v>952</v>
       </c>
       <c r="I14" s="7">
-        <v>783740</v>
+        <v>1035177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>1427</v>
+        <v>1876</v>
       </c>
       <c r="N14" s="7">
-        <v>1538425</v>
+        <v>1965253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,153 +2704,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>7491</v>
+        <v>21568</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>8602</v>
+        <v>20800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>16093</v>
+        <v>42368</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>924</v>
+        <v>3209</v>
       </c>
       <c r="D17" s="7">
-        <v>930076</v>
+        <v>3372782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
-        <v>952</v>
+        <v>3321</v>
       </c>
       <c r="I17" s="7">
-        <v>1035177</v>
+        <v>3523742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>1876</v>
+        <v>6530</v>
       </c>
       <c r="N17" s="7">
-        <v>1965253</v>
+        <v>6896524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,217 +2859,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21568</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20800</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="7">
-        <v>39</v>
-      </c>
-      <c r="N19" s="7">
-        <v>42368</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3372782</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3523742</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6530</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6896524</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3304,8 +2926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976A2CF3-7FBE-4737-878D-6520C8972084}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B98B0-022E-47F6-B6CB-856C17B5EEE7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3321,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3422,100 +3044,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>491</v>
+        <v>11218</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>1765</v>
+        <v>7853</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>2256</v>
+        <v>19071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>713</v>
       </c>
       <c r="D5" s="7">
-        <v>101491</v>
+        <v>624223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1220</v>
+      </c>
+      <c r="I5" s="7">
+        <v>667517</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1933</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1291740</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>240</v>
-      </c>
-      <c r="I5" s="7">
-        <v>128968</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" s="7">
-        <v>357</v>
-      </c>
-      <c r="N5" s="7">
-        <v>230459</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,153 +3146,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>11731</v>
+        <v>13782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>6684</v>
+        <v>10529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>18414</v>
+        <v>24311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>596</v>
+        <v>945</v>
       </c>
       <c r="D8" s="7">
-        <v>538092</v>
+        <v>1179082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
-        <v>980</v>
+        <v>1494</v>
       </c>
       <c r="I8" s="7">
-        <v>585871</v>
+        <v>946908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
-        <v>1576</v>
+        <v>2439</v>
       </c>
       <c r="N8" s="7">
-        <v>1123964</v>
+        <v>2125990</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,153 +3301,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>957437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8272</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5476</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="7">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
-        <v>15016</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11736</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="7">
-        <v>40</v>
-      </c>
       <c r="N10" s="7">
-        <v>26753</v>
+        <v>13748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>945</v>
+        <v>661</v>
       </c>
       <c r="D11" s="7">
-        <v>1024232</v>
+        <v>692944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1494</v>
+        <v>1036</v>
       </c>
       <c r="I11" s="7">
-        <v>1047020</v>
+        <v>926940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
-        <v>2439</v>
+        <v>1697</v>
       </c>
       <c r="N11" s="7">
-        <v>2071251</v>
+        <v>1619883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,153 +3456,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>672</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>701216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058756</v>
+        <v>932416</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1716</v>
       </c>
       <c r="N12" s="7">
-        <v>2098004</v>
+        <v>1633631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>9050</v>
+        <v>8333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10940</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="7">
+        <v>32</v>
+      </c>
+      <c r="N13" s="7">
+        <v>19272</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6133</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M13" s="7">
-        <v>19</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15183</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>661</v>
+        <v>994</v>
       </c>
       <c r="D14" s="7">
-        <v>715992</v>
+        <v>918498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1540</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1080974</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="I14" s="7">
-        <v>867214</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="M14" s="7">
-        <v>1697</v>
+        <v>2534</v>
       </c>
       <c r="N14" s="7">
-        <v>1583207</v>
+        <v>1999473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,153 +3611,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>672</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725042</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>873347</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1716</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1598390</v>
+        <v>2018745</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>8931</v>
+        <v>41606</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>12172</v>
+        <v>34797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
-        <v>21103</v>
+        <v>76403</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>994</v>
+        <v>3313</v>
       </c>
       <c r="D17" s="7">
-        <v>956472</v>
+        <v>3414746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
-        <v>1540</v>
+        <v>5290</v>
       </c>
       <c r="I17" s="7">
-        <v>1134772</v>
+        <v>3622340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
-        <v>2534</v>
+        <v>8603</v>
       </c>
       <c r="N17" s="7">
-        <v>2091244</v>
+        <v>7037087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,217 +3766,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3657137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8729</v>
       </c>
       <c r="N18" s="7">
-        <v>2112347</v>
+        <v>7113490</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45219</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="7">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38490</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M19" s="7">
-        <v>126</v>
-      </c>
-      <c r="N19" s="7">
-        <v>83709</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3313</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3336279</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5290</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3763845</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8603</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7100125</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381498</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802335</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8729</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7183834</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
